--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/Upload/Unidades Armazenamento (3).xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/Upload/Unidades Armazenamento (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARomao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564E059-AD3D-42C9-9487-4D5A46A7CF05}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0271485-0528-4AB0-BC99-3987F820C91F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Nº de Produto</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>300000-COIMBRA</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO  PRODUTO 2</t>
   </si>
 </sst>
 </file>
@@ -422,11 +425,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,6 +529,44 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
